--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Igf1r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Igf1r</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H2">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I2">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J2">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N2">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O2">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P2">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q2">
-        <v>0.01818783488888889</v>
+        <v>8.437547369753112</v>
       </c>
       <c r="R2">
-        <v>0.163690514</v>
+        <v>75.93792632777802</v>
       </c>
       <c r="S2">
-        <v>0.0001112579761672317</v>
+        <v>0.03042681523342686</v>
       </c>
       <c r="T2">
-        <v>0.0001112579761672317</v>
+        <v>0.03042681523342686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H3">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I3">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J3">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>32.186352</v>
       </c>
       <c r="O3">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P3">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q3">
-        <v>0.02324569866666666</v>
+        <v>8.425789717957333</v>
       </c>
       <c r="R3">
-        <v>0.209211288</v>
+        <v>75.832107461616</v>
       </c>
       <c r="S3">
-        <v>0.0001421977604286821</v>
+        <v>0.03038441572050067</v>
       </c>
       <c r="T3">
-        <v>0.0001421977604286821</v>
+        <v>0.03038441572050067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H4">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I4">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J4">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N4">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O4">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P4">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q4">
-        <v>0.005356430444444444</v>
+        <v>3.547554281155999</v>
       </c>
       <c r="R4">
-        <v>0.04820787399999999</v>
+        <v>31.927988530404</v>
       </c>
       <c r="S4">
-        <v>3.276616564698982E-05</v>
+        <v>0.01279290935067597</v>
       </c>
       <c r="T4">
-        <v>3.276616564698982E-05</v>
+        <v>0.01279290935067597</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H5">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I5">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J5">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N5">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O5">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P5">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q5">
-        <v>0.03192096266666666</v>
+        <v>3.769539186853111</v>
       </c>
       <c r="R5">
-        <v>0.287288664</v>
+        <v>33.925852681678</v>
       </c>
       <c r="S5">
-        <v>0.0001952657765643514</v>
+        <v>0.01359341374066831</v>
       </c>
       <c r="T5">
-        <v>0.0001952657765643513</v>
+        <v>0.01359341374066831</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H6">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I6">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J6">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N6">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O6">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P6">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q6">
-        <v>0.1050148370555556</v>
+        <v>44.14107773553133</v>
       </c>
       <c r="R6">
-        <v>0.9451335335</v>
+        <v>397.269699619782</v>
       </c>
       <c r="S6">
-        <v>0.0006423930231228577</v>
+        <v>0.1591780594059815</v>
       </c>
       <c r="T6">
-        <v>0.0006423930231228575</v>
+        <v>0.1591780594059815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H7">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I7">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J7">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N7">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O7">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P7">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q7">
-        <v>0.006373678277777777</v>
+        <v>2.563121232601</v>
       </c>
       <c r="R7">
-        <v>0.05736310449999999</v>
+        <v>23.068091093409</v>
       </c>
       <c r="S7">
-        <v>3.898883788305179E-05</v>
+        <v>0.00924292483912963</v>
       </c>
       <c r="T7">
-        <v>3.898883788305179E-05</v>
+        <v>0.00924292483912963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H8">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I8">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J8">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N8">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O8">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P8">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q8">
-        <v>2.522896136263556</v>
+        <v>1.160483151078222</v>
       </c>
       <c r="R8">
-        <v>22.706065226372</v>
+        <v>10.444348359704</v>
       </c>
       <c r="S8">
-        <v>0.0154329704396145</v>
+        <v>0.00418484245148543</v>
       </c>
       <c r="T8">
-        <v>0.0154329704396145</v>
+        <v>0.004184842451485431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H9">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I9">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J9">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>32.186352</v>
       </c>
       <c r="O9">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P9">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q9">
-        <v>3.224489539802666</v>
+        <v>1.158866027498667</v>
       </c>
       <c r="R9">
-        <v>29.020405858224</v>
+        <v>10.429794247488</v>
       </c>
       <c r="S9">
-        <v>0.01972473263379011</v>
+        <v>0.004179010908477903</v>
       </c>
       <c r="T9">
-        <v>0.0197247326337901</v>
+        <v>0.004179010908477904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H10">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I10">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J10">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N10">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O10">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P10">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q10">
-        <v>0.7430085964057777</v>
+        <v>0.4879234202079999</v>
       </c>
       <c r="R10">
-        <v>6.687077367652</v>
+        <v>4.391310781872</v>
       </c>
       <c r="S10">
-        <v>0.004545105737762302</v>
+        <v>0.001759510803808964</v>
       </c>
       <c r="T10">
-        <v>0.004545105737762302</v>
+        <v>0.001759510803808964</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H11">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I11">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J11">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N11">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O11">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P11">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q11">
-        <v>4.427864771674666</v>
+        <v>0.5184547738782223</v>
       </c>
       <c r="R11">
-        <v>39.850782945072</v>
+        <v>4.666092964904</v>
       </c>
       <c r="S11">
-        <v>0.02708597676679263</v>
+        <v>0.001869610553918864</v>
       </c>
       <c r="T11">
-        <v>0.02708597676679262</v>
+        <v>0.001869610553918864</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H12">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I12">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J12">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N12">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O12">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P12">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q12">
-        <v>14.56696348280922</v>
+        <v>6.071074298930666</v>
       </c>
       <c r="R12">
-        <v>131.102671345283</v>
+        <v>54.639668690376</v>
       </c>
       <c r="S12">
-        <v>0.08910851049068061</v>
+        <v>0.021893027424553</v>
       </c>
       <c r="T12">
-        <v>0.0891085104906806</v>
+        <v>0.021893027424553</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H13">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I13">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J13">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N13">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O13">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P13">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q13">
-        <v>0.884114486360111</v>
+        <v>0.352526495468</v>
       </c>
       <c r="R13">
-        <v>7.957030377240999</v>
+        <v>3.172738459212</v>
       </c>
       <c r="S13">
-        <v>0.005408273664978641</v>
+        <v>0.001271253134642393</v>
       </c>
       <c r="T13">
-        <v>0.005408273664978641</v>
+        <v>0.001271253134642394</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,14 +1272,14 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H14">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I14">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J14">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N14">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O14">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P14">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q14">
-        <v>1.633592155921778</v>
+        <v>18.68367702480889</v>
       </c>
       <c r="R14">
-        <v>14.702329403296</v>
+        <v>168.15309322328</v>
       </c>
       <c r="S14">
-        <v>0.009992951786776696</v>
+        <v>0.06737559669920012</v>
       </c>
       <c r="T14">
-        <v>0.009992951786776696</v>
+        <v>0.06737559669920012</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H15">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I15">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J15">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>32.186352</v>
       </c>
       <c r="O15">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P15">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q15">
-        <v>2.087878586581333</v>
+        <v>18.65764147690667</v>
       </c>
       <c r="R15">
-        <v>18.790907279232</v>
+        <v>167.91877329216</v>
       </c>
       <c r="S15">
-        <v>0.01277189656960485</v>
+        <v>0.06728170936786948</v>
       </c>
       <c r="T15">
-        <v>0.01277189656960484</v>
+        <v>0.06728170936786948</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H16">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I16">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J16">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N16">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O16">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P16">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q16">
-        <v>0.4811030455928888</v>
+        <v>7.855524302559998</v>
       </c>
       <c r="R16">
-        <v>4.329927410335999</v>
+        <v>70.69971872303998</v>
       </c>
       <c r="S16">
-        <v>0.002942986425132771</v>
+        <v>0.02832796973354133</v>
       </c>
       <c r="T16">
-        <v>0.00294298642513277</v>
+        <v>0.02832796973354133</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H17">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I17">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J17">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N17">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O17">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P17">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q17">
-        <v>2.867072113877333</v>
+        <v>8.347076420808888</v>
       </c>
       <c r="R17">
-        <v>25.803649024896</v>
+        <v>75.12368778727999</v>
       </c>
       <c r="S17">
-        <v>0.01753835147856821</v>
+        <v>0.0301005660609023</v>
       </c>
       <c r="T17">
-        <v>0.01753835147856821</v>
+        <v>0.0301005660609023</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H18">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I18">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J18">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N18">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O18">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P18">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q18">
-        <v>9.43220647852711</v>
+        <v>97.74376412914665</v>
       </c>
       <c r="R18">
-        <v>84.889858306744</v>
+        <v>879.6938771623198</v>
       </c>
       <c r="S18">
-        <v>0.05769835772115296</v>
+        <v>0.3524758227774221</v>
       </c>
       <c r="T18">
-        <v>0.05769835772115295</v>
+        <v>0.3524758227774221</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H19">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I19">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J19">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N19">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O19">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P19">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q19">
-        <v>0.5724700549875554</v>
+        <v>5.675645680759999</v>
       </c>
       <c r="R19">
-        <v>5.152230494887999</v>
+        <v>51.08081112683999</v>
       </c>
       <c r="S19">
-        <v>0.003501893442697194</v>
+        <v>0.02046706405204274</v>
       </c>
       <c r="T19">
-        <v>0.003501893442697194</v>
+        <v>0.02046706405204274</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,14 +1644,14 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H20">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I20">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J20">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N20">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O20">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P20">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q20">
-        <v>4.802931512320001</v>
+        <v>4.726647115116223</v>
       </c>
       <c r="R20">
-        <v>43.22638361088</v>
+        <v>42.53982403604601</v>
       </c>
       <c r="S20">
-        <v>0.02938032168177382</v>
+        <v>0.01704486056704172</v>
       </c>
       <c r="T20">
-        <v>0.02938032168177382</v>
+        <v>0.01704486056704172</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H21">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I21">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J21">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>32.186352</v>
       </c>
       <c r="O21">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P21">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q21">
-        <v>6.138581053439999</v>
+        <v>4.720060571834667</v>
       </c>
       <c r="R21">
-        <v>55.24722948096</v>
+        <v>42.480545146512</v>
       </c>
       <c r="S21">
-        <v>0.03755070951086528</v>
+        <v>0.01702110869618724</v>
       </c>
       <c r="T21">
-        <v>0.03755070951086528</v>
+        <v>0.01702110869618725</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H22">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I22">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J22">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N22">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O22">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P22">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q22">
-        <v>1.41449318912</v>
+        <v>1.987311771292</v>
       </c>
       <c r="R22">
-        <v>12.73043870208</v>
+        <v>17.885805941628</v>
       </c>
       <c r="S22">
-        <v>0.008652687386114629</v>
+        <v>0.007166486352785388</v>
       </c>
       <c r="T22">
-        <v>0.008652687386114629</v>
+        <v>0.00716648635278539</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H23">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I23">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J23">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N23">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O23">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P23">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q23">
-        <v>8.42949138432</v>
+        <v>2.111665954816222</v>
       </c>
       <c r="R23">
-        <v>75.86542245888</v>
+        <v>19.004993593346</v>
       </c>
       <c r="S23">
-        <v>0.05156458463956581</v>
+        <v>0.007614922562952216</v>
       </c>
       <c r="T23">
-        <v>0.05156458463956581</v>
+        <v>0.007614922562952217</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H24">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I24">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J24">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N24">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O24">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P24">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q24">
-        <v>27.73167192448</v>
+        <v>24.72748164765267</v>
       </c>
       <c r="R24">
-        <v>249.58504732032</v>
+        <v>222.547334828874</v>
       </c>
       <c r="S24">
-        <v>0.1696391963584496</v>
+        <v>0.08917028637708214</v>
       </c>
       <c r="T24">
-        <v>0.1696391963584496</v>
+        <v>0.08917028637708216</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H25">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I25">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J25">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N25">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O25">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P25">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q25">
-        <v>1.68312173696</v>
+        <v>1.435840185407</v>
       </c>
       <c r="R25">
-        <v>15.14809563264</v>
+        <v>12.922561668663</v>
       </c>
       <c r="S25">
-        <v>0.01029593237684627</v>
+        <v>0.005177813185703807</v>
       </c>
       <c r="T25">
-        <v>0.01029593237684627</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H26">
-        <v>2.381188</v>
-      </c>
-      <c r="I26">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J26">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>8.394385333333334</v>
-      </c>
-      <c r="N26">
-        <v>25.183156</v>
-      </c>
-      <c r="O26">
-        <v>0.09567537230797811</v>
-      </c>
-      <c r="P26">
-        <v>0.09567537230797811</v>
-      </c>
-      <c r="Q26">
-        <v>6.662869874369779</v>
-      </c>
-      <c r="R26">
-        <v>59.96582886932801</v>
-      </c>
-      <c r="S26">
-        <v>0.04075787042364586</v>
-      </c>
-      <c r="T26">
-        <v>0.04075787042364586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H27">
-        <v>2.381188</v>
-      </c>
-      <c r="I27">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J27">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>10.728784</v>
-      </c>
-      <c r="N27">
-        <v>32.186352</v>
-      </c>
-      <c r="O27">
-        <v>0.1222817827454047</v>
-      </c>
-      <c r="P27">
-        <v>0.1222817827454047</v>
-      </c>
-      <c r="Q27">
-        <v>8.515750571797334</v>
-      </c>
-      <c r="R27">
-        <v>76.64175514617601</v>
-      </c>
-      <c r="S27">
-        <v>0.05209224627071582</v>
-      </c>
-      <c r="T27">
-        <v>0.05209224627071581</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H28">
-        <v>2.381188</v>
-      </c>
-      <c r="I28">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J28">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>2.472198666666666</v>
-      </c>
-      <c r="N28">
-        <v>7.416595999999999</v>
-      </c>
-      <c r="O28">
-        <v>0.0281769919369066</v>
-      </c>
-      <c r="P28">
-        <v>0.0281769919369066</v>
-      </c>
-      <c r="Q28">
-        <v>1.962256599560889</v>
-      </c>
-      <c r="R28">
-        <v>17.660309396048</v>
-      </c>
-      <c r="S28">
-        <v>0.01200344622224991</v>
-      </c>
-      <c r="T28">
-        <v>0.01200344622224991</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H29">
-        <v>2.381188</v>
-      </c>
-      <c r="I29">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J29">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>14.732752</v>
-      </c>
-      <c r="N29">
-        <v>44.198256</v>
-      </c>
-      <c r="O29">
-        <v>0.167917182348524</v>
-      </c>
-      <c r="P29">
-        <v>0.167917182348524</v>
-      </c>
-      <c r="Q29">
-        <v>11.69381742312533</v>
-      </c>
-      <c r="R29">
-        <v>105.244356808128</v>
-      </c>
-      <c r="S29">
-        <v>0.07153300368703304</v>
-      </c>
-      <c r="T29">
-        <v>0.07153300368703303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H30">
-        <v>2.381188</v>
-      </c>
-      <c r="I30">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J30">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>48.46838633333333</v>
-      </c>
-      <c r="N30">
-        <v>145.405159</v>
-      </c>
-      <c r="O30">
-        <v>0.5524205434309247</v>
-      </c>
-      <c r="P30">
-        <v>0.5524205434309247</v>
-      </c>
-      <c r="Q30">
-        <v>38.47077997209912</v>
-      </c>
-      <c r="R30">
-        <v>346.2370197488921</v>
-      </c>
-      <c r="S30">
-        <v>0.2353320858375187</v>
-      </c>
-      <c r="T30">
-        <v>0.2353320858375186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H31">
-        <v>2.381188</v>
-      </c>
-      <c r="I31">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J31">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.941697666666666</v>
-      </c>
-      <c r="N31">
-        <v>8.825092999999999</v>
-      </c>
-      <c r="O31">
-        <v>0.03352812723026182</v>
-      </c>
-      <c r="P31">
-        <v>0.03352812723026182</v>
-      </c>
-      <c r="Q31">
-        <v>2.334911727831555</v>
-      </c>
-      <c r="R31">
-        <v>21.014205550484</v>
-      </c>
-      <c r="S31">
-        <v>0.01428303890785667</v>
-      </c>
-      <c r="T31">
-        <v>0.01428303890785667</v>
+        <v>0.005177813185703808</v>
       </c>
     </row>
   </sheetData>
